--- a/tests/resources/mock_user_update_form.xlsx
+++ b/tests/resources/mock_user_update_form.xlsx
@@ -49,7 +49,7 @@
     <t xml:space="preserve">List projects for which you need security access</t>
   </si>
   <si>
-    <t xml:space="preserve">By clicking yes below, you agree with these general terms.</t>
+    <t xml:space="preserve">By clicking yes below, you agree with these general terms. </t>
   </si>
   <si>
     <t xml:space="preserve">Optional: Please feel free to leave any feedback.</t>
@@ -256,13 +256,13 @@
   </sheetPr>
   <dimension ref="A1:K7"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="B1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <pane xSplit="0" ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="bottomLeft" activeCell="F15" activeCellId="0" sqref="F15"/>
+      <selection pane="topLeft" activeCell="B1" activeCellId="0" sqref="B1"/>
+      <selection pane="bottomLeft" activeCell="J1" activeCellId="0" sqref="J1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.4453125" defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="14.4609375" defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="17" min="1" style="0" width="21.57"/>
   </cols>
@@ -453,8 +453,8 @@
     <hyperlink ref="B7" r:id="rId6" display="vvanilla@example.com"/>
   </hyperlinks>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.747916666666667" right="0.747916666666667" top="0.984027777777778" bottom="0.984027777777778" header="0.511805555555555" footer="0.511805555555555"/>
-  <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <pageMargins left="0.747916666666667" right="0.747916666666667" top="0.984027777777778" bottom="0.984027777777778" header="0.511811023622047" footer="0.511811023622047"/>
+  <pageSetup paperSize="1" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader/>
     <oddFooter/>

--- a/tests/resources/mock_user_update_form.xlsx
+++ b/tests/resources/mock_user_update_form.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="38">
   <si>
     <t xml:space="preserve">Timestamp</t>
   </si>
@@ -122,16 +122,29 @@
   </si>
   <si>
     <t xml:space="preserve">Vanilla</t>
+  </si>
+  <si>
+    <t xml:space="preserve">xxigua@example.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Xavier</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Xigua</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mango</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="3">
+  <numFmts count="4">
     <numFmt numFmtId="164" formatCode="General"/>
     <numFmt numFmtId="165" formatCode="m/d/yyyy\ h:mm:ss"/>
     <numFmt numFmtId="166" formatCode="mm/dd/yy"/>
+    <numFmt numFmtId="167" formatCode="mm/dd/yy\ hh:mm\ AM/PM"/>
   </numFmts>
   <fonts count="6">
     <font>
@@ -212,7 +225,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -234,6 +247,10 @@
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -254,15 +271,15 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:K7"/>
+  <dimension ref="A1:K8"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="B1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <pane xSplit="0" ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="topLeft" activeCell="B1" activeCellId="0" sqref="B1"/>
-      <selection pane="bottomLeft" activeCell="J1" activeCellId="0" sqref="J1"/>
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+      <selection pane="bottomLeft" activeCell="C11" activeCellId="0" sqref="C11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.4609375" defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="14.48046875" defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="17" min="1" style="0" width="21.57"/>
   </cols>
@@ -440,6 +457,32 @@
         <v>23</v>
       </c>
       <c r="J7" s="0" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A8" s="6" t="n">
+        <v>44135.5704513889</v>
+      </c>
+      <c r="B8" s="0" t="s">
+        <v>34</v>
+      </c>
+      <c r="C8" s="0" t="s">
+        <v>35</v>
+      </c>
+      <c r="D8" s="0" t="s">
+        <v>36</v>
+      </c>
+      <c r="E8" s="0" t="s">
+        <v>37</v>
+      </c>
+      <c r="G8" s="4" t="n">
+        <v>44255</v>
+      </c>
+      <c r="H8" s="0" t="s">
+        <v>23</v>
+      </c>
+      <c r="J8" s="0" t="s">
         <v>15</v>
       </c>
     </row>
@@ -451,6 +494,7 @@
     <hyperlink ref="B5" r:id="rId4" display="ttomato@example.com"/>
     <hyperlink ref="B6" r:id="rId5" display="uugni@example.com"/>
     <hyperlink ref="B7" r:id="rId6" display="vvanilla@example.com"/>
+    <hyperlink ref="B8" r:id="rId7" display="xxigua@example.com"/>
   </hyperlinks>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.747916666666667" right="0.747916666666667" top="0.984027777777778" bottom="0.984027777777778" header="0.511811023622047" footer="0.511811023622047"/>
